--- a/Resources/CustomRegions/CustomRegionRat_v3_v2.xlsx
+++ b/Resources/CustomRegions/CustomRegionRat_v3_v2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HBP_Analytics\Nutil\Nutil_releases\Resources_for_Nutil\DefaultCustomRegion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharoncy\Documents\GitHub\nutil\Resources\CustomRegions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="9405" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17208" windowHeight="9408" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustomRegionRat" sheetId="5" r:id="rId1"/>
@@ -86,12 +86,6 @@
     <t>orange</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>255;255;255</t>
-  </si>
-  <si>
     <t>Atlas Id</t>
   </si>
   <si>
@@ -144,6 +138,12 @@
   </si>
   <si>
     <t>grey</t>
+  </si>
+  <si>
+    <t>127;32;255</t>
+  </si>
+  <si>
+    <t>purple</t>
   </si>
 </sst>
 </file>
@@ -581,25 +581,25 @@
   <dimension ref="A1:Q400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="14" style="8" customWidth="1"/>
-    <col min="10" max="11" width="15.42578125" style="8" customWidth="1"/>
-    <col min="12" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="10" max="11" width="15.44140625" style="8" customWidth="1"/>
+    <col min="12" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -619,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>7</v>
@@ -631,65 +631,65 @@
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -718,25 +718,25 @@
         <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6">
         <v>92</v>
@@ -779,7 +779,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6">
         <v>77</v>
@@ -818,7 +818,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="6">
         <v>10</v>
@@ -854,7 +854,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="6">
         <v>151</v>
@@ -881,7 +881,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>152</v>
@@ -909,7 +909,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>153</v>
@@ -936,7 +936,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -961,7 +961,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -988,7 +988,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
@@ -1012,7 +1012,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
@@ -1037,7 +1037,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6">
@@ -1062,7 +1062,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6">
@@ -1087,7 +1087,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6">
@@ -1112,7 +1112,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6">
@@ -1135,7 +1135,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6">
@@ -1158,7 +1158,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6">
@@ -1181,7 +1181,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6">
@@ -1204,7 +1204,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6">
@@ -1227,7 +1227,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6">
@@ -1250,7 +1250,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6">
@@ -1273,7 +1273,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6">
@@ -1296,7 +1296,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6">
@@ -1319,7 +1319,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6">
@@ -1342,7 +1342,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6">
@@ -1365,7 +1365,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6">
@@ -1388,7 +1388,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6">
@@ -1411,7 +1411,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6">
@@ -1434,7 +1434,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6">
@@ -1457,7 +1457,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6">
@@ -1480,7 +1480,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -1503,7 +1503,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6">
@@ -1526,7 +1526,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6">
@@ -1549,7 +1549,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="C36" s="6">
         <v>121</v>
@@ -1564,7 +1564,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6">
@@ -1587,7 +1587,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6">
@@ -1610,7 +1610,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1631,7 +1631,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1652,7 +1652,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1673,7 +1673,7 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1694,7 +1694,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1712,7 +1712,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1731,7 +1731,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1750,7 +1750,7 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1769,7 +1769,7 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1788,7 +1788,7 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1807,7 +1807,7 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1826,7 +1826,7 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1845,7 +1845,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1864,7 +1864,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1883,7 +1883,7 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1902,7 +1902,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1921,7 +1921,7 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1940,7 +1940,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1959,7 +1959,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1978,7 +1978,7 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1997,7 +1997,7 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2016,7 +2016,7 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2035,7 +2035,7 @@
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2054,7 +2054,7 @@
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2073,7 +2073,7 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2092,7 +2092,7 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2111,7 +2111,7 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2130,7 +2130,7 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -2149,7 +2149,7 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2168,7 +2168,7 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2187,7 +2187,7 @@
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2206,7 +2206,7 @@
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2225,7 +2225,7 @@
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2244,7 +2244,7 @@
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2263,7 +2263,7 @@
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2282,7 +2282,7 @@
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2301,7 +2301,7 @@
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2320,7 +2320,7 @@
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2339,7 +2339,7 @@
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2358,7 +2358,7 @@
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2377,7 +2377,7 @@
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2396,7 +2396,7 @@
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2415,7 +2415,7 @@
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2434,7 +2434,7 @@
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2453,7 +2453,7 @@
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2472,7 +2472,7 @@
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2491,7 +2491,7 @@
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2510,7 +2510,7 @@
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2529,7 +2529,7 @@
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2548,7 +2548,7 @@
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2567,7 +2567,7 @@
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2586,7 +2586,7 @@
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2605,7 +2605,7 @@
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2624,7 +2624,7 @@
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2643,7 +2643,7 @@
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2662,7 +2662,7 @@
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2681,7 +2681,7 @@
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2700,7 +2700,7 @@
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2719,7 +2719,7 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2738,7 +2738,7 @@
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2757,7 +2757,7 @@
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -2776,7 +2776,7 @@
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -2795,7 +2795,7 @@
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -2814,7 +2814,7 @@
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -2833,7 +2833,7 @@
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -2852,7 +2852,7 @@
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -2871,7 +2871,7 @@
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -2890,7 +2890,7 @@
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -2909,7 +2909,7 @@
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -2928,7 +2928,7 @@
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -2947,7 +2947,7 @@
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -2966,7 +2966,7 @@
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -2985,7 +2985,7 @@
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -3004,7 +3004,7 @@
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -3023,7 +3023,7 @@
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -3042,7 +3042,7 @@
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -3061,7 +3061,7 @@
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -3080,7 +3080,7 @@
       <c r="P115" s="5"/>
       <c r="Q115" s="5"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -3099,7 +3099,7 @@
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -3118,7 +3118,7 @@
       <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -3137,7 +3137,7 @@
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -3156,7 +3156,7 @@
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -3175,7 +3175,7 @@
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -3194,7 +3194,7 @@
       <c r="P121" s="5"/>
       <c r="Q121" s="5"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -3213,7 +3213,7 @@
       <c r="P122" s="5"/>
       <c r="Q122" s="5"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -3232,7 +3232,7 @@
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -3251,7 +3251,7 @@
       <c r="P124" s="5"/>
       <c r="Q124" s="5"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -3270,7 +3270,7 @@
       <c r="P125" s="5"/>
       <c r="Q125" s="5"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -3289,7 +3289,7 @@
       <c r="P126" s="5"/>
       <c r="Q126" s="5"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -3308,7 +3308,7 @@
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -3327,7 +3327,7 @@
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -3346,7 +3346,7 @@
       <c r="P129" s="5"/>
       <c r="Q129" s="5"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -3365,7 +3365,7 @@
       <c r="P130" s="5"/>
       <c r="Q130" s="5"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -3384,7 +3384,7 @@
       <c r="P131" s="5"/>
       <c r="Q131" s="5"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -3403,7 +3403,7 @@
       <c r="P132" s="5"/>
       <c r="Q132" s="5"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -3422,7 +3422,7 @@
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -3441,7 +3441,7 @@
       <c r="P134" s="5"/>
       <c r="Q134" s="5"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -3460,7 +3460,7 @@
       <c r="P135" s="5"/>
       <c r="Q135" s="5"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -3479,7 +3479,7 @@
       <c r="P136" s="5"/>
       <c r="Q136" s="5"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -3498,7 +3498,7 @@
       <c r="P137" s="5"/>
       <c r="Q137" s="5"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -3517,7 +3517,7 @@
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -3536,7 +3536,7 @@
       <c r="P139" s="5"/>
       <c r="Q139" s="5"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -3555,7 +3555,7 @@
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -3574,7 +3574,7 @@
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -3593,7 +3593,7 @@
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -3612,7 +3612,7 @@
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -3631,7 +3631,7 @@
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -3650,7 +3650,7 @@
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -3669,7 +3669,7 @@
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -3688,7 +3688,7 @@
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -3707,7 +3707,7 @@
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -3726,7 +3726,7 @@
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -3745,7 +3745,7 @@
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -3764,7 +3764,7 @@
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -3783,7 +3783,7 @@
       <c r="P152" s="5"/>
       <c r="Q152" s="5"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -3802,7 +3802,7 @@
       <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -3821,7 +3821,7 @@
       <c r="P154" s="5"/>
       <c r="Q154" s="5"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -3840,7 +3840,7 @@
       <c r="P155" s="5"/>
       <c r="Q155" s="5"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -3859,7 +3859,7 @@
       <c r="P156" s="5"/>
       <c r="Q156" s="5"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -3878,7 +3878,7 @@
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -3897,7 +3897,7 @@
       <c r="P158" s="5"/>
       <c r="Q158" s="5"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -3916,7 +3916,7 @@
       <c r="P159" s="5"/>
       <c r="Q159" s="5"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -3935,7 +3935,7 @@
       <c r="P160" s="5"/>
       <c r="Q160" s="5"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -3954,7 +3954,7 @@
       <c r="P161" s="5"/>
       <c r="Q161" s="5"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -3973,7 +3973,7 @@
       <c r="P162" s="5"/>
       <c r="Q162" s="5"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -3992,7 +3992,7 @@
       <c r="P163" s="5"/>
       <c r="Q163" s="5"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -4011,7 +4011,7 @@
       <c r="P164" s="5"/>
       <c r="Q164" s="5"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -4030,7 +4030,7 @@
       <c r="P165" s="5"/>
       <c r="Q165" s="5"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -4049,7 +4049,7 @@
       <c r="P166" s="5"/>
       <c r="Q166" s="5"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -4068,7 +4068,7 @@
       <c r="P167" s="5"/>
       <c r="Q167" s="5"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -4087,7 +4087,7 @@
       <c r="P168" s="5"/>
       <c r="Q168" s="5"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -4106,7 +4106,7 @@
       <c r="P169" s="5"/>
       <c r="Q169" s="5"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -4125,7 +4125,7 @@
       <c r="P170" s="5"/>
       <c r="Q170" s="5"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -4144,7 +4144,7 @@
       <c r="P171" s="5"/>
       <c r="Q171" s="5"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -4163,7 +4163,7 @@
       <c r="P172" s="5"/>
       <c r="Q172" s="5"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -4182,7 +4182,7 @@
       <c r="P173" s="5"/>
       <c r="Q173" s="5"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -4201,7 +4201,7 @@
       <c r="P174" s="5"/>
       <c r="Q174" s="5"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -4220,7 +4220,7 @@
       <c r="P175" s="5"/>
       <c r="Q175" s="5"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -4239,7 +4239,7 @@
       <c r="P176" s="5"/>
       <c r="Q176" s="5"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -4258,7 +4258,7 @@
       <c r="P177" s="5"/>
       <c r="Q177" s="5"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -4277,7 +4277,7 @@
       <c r="P178" s="5"/>
       <c r="Q178" s="5"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -4296,7 +4296,7 @@
       <c r="P179" s="5"/>
       <c r="Q179" s="5"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -4315,7 +4315,7 @@
       <c r="P180" s="5"/>
       <c r="Q180" s="5"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -4334,7 +4334,7 @@
       <c r="P181" s="5"/>
       <c r="Q181" s="5"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -4353,7 +4353,7 @@
       <c r="P182" s="5"/>
       <c r="Q182" s="5"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -4372,7 +4372,7 @@
       <c r="P183" s="5"/>
       <c r="Q183" s="5"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -4391,7 +4391,7 @@
       <c r="P184" s="5"/>
       <c r="Q184" s="5"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -4410,7 +4410,7 @@
       <c r="P185" s="5"/>
       <c r="Q185" s="5"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -4429,7 +4429,7 @@
       <c r="P186" s="5"/>
       <c r="Q186" s="5"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -4448,7 +4448,7 @@
       <c r="P187" s="5"/>
       <c r="Q187" s="5"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -4467,7 +4467,7 @@
       <c r="P188" s="5"/>
       <c r="Q188" s="5"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -4486,7 +4486,7 @@
       <c r="P189" s="5"/>
       <c r="Q189" s="5"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -4505,7 +4505,7 @@
       <c r="P190" s="5"/>
       <c r="Q190" s="5"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -4524,7 +4524,7 @@
       <c r="P191" s="5"/>
       <c r="Q191" s="5"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -4543,7 +4543,7 @@
       <c r="P192" s="5"/>
       <c r="Q192" s="5"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -4562,7 +4562,7 @@
       <c r="P193" s="5"/>
       <c r="Q193" s="5"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -4581,7 +4581,7 @@
       <c r="P194" s="5"/>
       <c r="Q194" s="5"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -4600,7 +4600,7 @@
       <c r="P195" s="5"/>
       <c r="Q195" s="5"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -4619,7 +4619,7 @@
       <c r="P196" s="5"/>
       <c r="Q196" s="5"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -4638,7 +4638,7 @@
       <c r="P197" s="5"/>
       <c r="Q197" s="5"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -4657,7 +4657,7 @@
       <c r="P198" s="5"/>
       <c r="Q198" s="5"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -4676,7 +4676,7 @@
       <c r="P199" s="5"/>
       <c r="Q199" s="5"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -4695,7 +4695,7 @@
       <c r="P200" s="5"/>
       <c r="Q200" s="5"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="4"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -4714,7 +4714,7 @@
       <c r="P201" s="5"/>
       <c r="Q201" s="5"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -4733,7 +4733,7 @@
       <c r="P202" s="5"/>
       <c r="Q202" s="5"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -4752,7 +4752,7 @@
       <c r="P203" s="5"/>
       <c r="Q203" s="5"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -4771,7 +4771,7 @@
       <c r="P204" s="5"/>
       <c r="Q204" s="5"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -4790,7 +4790,7 @@
       <c r="P205" s="5"/>
       <c r="Q205" s="5"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -4809,7 +4809,7 @@
       <c r="P206" s="5"/>
       <c r="Q206" s="5"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -4828,7 +4828,7 @@
       <c r="P207" s="5"/>
       <c r="Q207" s="5"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -4847,7 +4847,7 @@
       <c r="P208" s="5"/>
       <c r="Q208" s="5"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="4"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -4866,7 +4866,7 @@
       <c r="P209" s="5"/>
       <c r="Q209" s="5"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="4"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -4885,7 +4885,7 @@
       <c r="P210" s="5"/>
       <c r="Q210" s="5"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -4904,7 +4904,7 @@
       <c r="P211" s="5"/>
       <c r="Q211" s="5"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="4"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -4923,7 +4923,7 @@
       <c r="P212" s="5"/>
       <c r="Q212" s="5"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="4"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -4942,7 +4942,7 @@
       <c r="P213" s="5"/>
       <c r="Q213" s="5"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="4"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -4961,7 +4961,7 @@
       <c r="P214" s="5"/>
       <c r="Q214" s="5"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -4980,7 +4980,7 @@
       <c r="P215" s="5"/>
       <c r="Q215" s="5"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="4"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -4999,7 +4999,7 @@
       <c r="P216" s="5"/>
       <c r="Q216" s="5"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -5018,7 +5018,7 @@
       <c r="P217" s="5"/>
       <c r="Q217" s="5"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -5037,7 +5037,7 @@
       <c r="P218" s="5"/>
       <c r="Q218" s="5"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -5056,7 +5056,7 @@
       <c r="P219" s="5"/>
       <c r="Q219" s="5"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="4"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -5075,7 +5075,7 @@
       <c r="P220" s="5"/>
       <c r="Q220" s="5"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="4"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -5094,7 +5094,7 @@
       <c r="P221" s="5"/>
       <c r="Q221" s="5"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="4"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -5113,7 +5113,7 @@
       <c r="P222" s="5"/>
       <c r="Q222" s="5"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -5132,7 +5132,7 @@
       <c r="P223" s="5"/>
       <c r="Q223" s="5"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="4"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -5151,7 +5151,7 @@
       <c r="P224" s="5"/>
       <c r="Q224" s="5"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="4"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -5170,7 +5170,7 @@
       <c r="P225" s="5"/>
       <c r="Q225" s="5"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="4"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -5189,7 +5189,7 @@
       <c r="P226" s="5"/>
       <c r="Q226" s="5"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -5208,7 +5208,7 @@
       <c r="P227" s="5"/>
       <c r="Q227" s="5"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -5227,7 +5227,7 @@
       <c r="P228" s="5"/>
       <c r="Q228" s="5"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -5246,7 +5246,7 @@
       <c r="P229" s="5"/>
       <c r="Q229" s="5"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -5265,7 +5265,7 @@
       <c r="P230" s="5"/>
       <c r="Q230" s="5"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="4"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -5284,7 +5284,7 @@
       <c r="P231" s="5"/>
       <c r="Q231" s="5"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -5303,7 +5303,7 @@
       <c r="P232" s="5"/>
       <c r="Q232" s="5"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -5322,7 +5322,7 @@
       <c r="P233" s="5"/>
       <c r="Q233" s="5"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="4"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -5341,7 +5341,7 @@
       <c r="P234" s="5"/>
       <c r="Q234" s="5"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -5360,7 +5360,7 @@
       <c r="P235" s="5"/>
       <c r="Q235" s="5"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -5379,7 +5379,7 @@
       <c r="P236" s="5"/>
       <c r="Q236" s="5"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -5398,7 +5398,7 @@
       <c r="P237" s="5"/>
       <c r="Q237" s="5"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="4"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -5417,7 +5417,7 @@
       <c r="P238" s="5"/>
       <c r="Q238" s="5"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -5436,7 +5436,7 @@
       <c r="P239" s="5"/>
       <c r="Q239" s="5"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="4"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -5455,7 +5455,7 @@
       <c r="P240" s="5"/>
       <c r="Q240" s="5"/>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -5474,7 +5474,7 @@
       <c r="P241" s="5"/>
       <c r="Q241" s="5"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="4"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -5493,7 +5493,7 @@
       <c r="P242" s="5"/>
       <c r="Q242" s="5"/>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -5512,7 +5512,7 @@
       <c r="P243" s="5"/>
       <c r="Q243" s="5"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="4"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -5531,7 +5531,7 @@
       <c r="P244" s="5"/>
       <c r="Q244" s="5"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -5550,7 +5550,7 @@
       <c r="P245" s="5"/>
       <c r="Q245" s="5"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="4"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -5569,7 +5569,7 @@
       <c r="P246" s="5"/>
       <c r="Q246" s="5"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="4"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -5588,7 +5588,7 @@
       <c r="P247" s="5"/>
       <c r="Q247" s="5"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="4"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -5607,7 +5607,7 @@
       <c r="P248" s="5"/>
       <c r="Q248" s="5"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -5626,7 +5626,7 @@
       <c r="P249" s="5"/>
       <c r="Q249" s="5"/>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="4"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -5645,7 +5645,7 @@
       <c r="P250" s="5"/>
       <c r="Q250" s="5"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="4"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -5664,7 +5664,7 @@
       <c r="P251" s="5"/>
       <c r="Q251" s="5"/>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="4"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -5683,7 +5683,7 @@
       <c r="P252" s="5"/>
       <c r="Q252" s="5"/>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="4"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -5702,7 +5702,7 @@
       <c r="P253" s="5"/>
       <c r="Q253" s="5"/>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="4"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -5721,7 +5721,7 @@
       <c r="P254" s="5"/>
       <c r="Q254" s="5"/>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="4"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -5740,7 +5740,7 @@
       <c r="P255" s="5"/>
       <c r="Q255" s="5"/>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="4"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -5759,7 +5759,7 @@
       <c r="P256" s="5"/>
       <c r="Q256" s="5"/>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="4"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -5778,7 +5778,7 @@
       <c r="P257" s="5"/>
       <c r="Q257" s="5"/>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="4"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -5797,7 +5797,7 @@
       <c r="P258" s="5"/>
       <c r="Q258" s="5"/>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="4"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -5816,7 +5816,7 @@
       <c r="P259" s="5"/>
       <c r="Q259" s="5"/>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="4"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -5835,7 +5835,7 @@
       <c r="P260" s="5"/>
       <c r="Q260" s="5"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="4"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -5854,7 +5854,7 @@
       <c r="P261" s="5"/>
       <c r="Q261" s="5"/>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="4"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -5873,7 +5873,7 @@
       <c r="P262" s="5"/>
       <c r="Q262" s="5"/>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="4"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -5892,7 +5892,7 @@
       <c r="P263" s="5"/>
       <c r="Q263" s="5"/>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="4"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -5911,7 +5911,7 @@
       <c r="P264" s="5"/>
       <c r="Q264" s="5"/>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="4"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -5930,7 +5930,7 @@
       <c r="P265" s="5"/>
       <c r="Q265" s="5"/>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="4"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -5949,7 +5949,7 @@
       <c r="P266" s="5"/>
       <c r="Q266" s="5"/>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -5968,7 +5968,7 @@
       <c r="P267" s="5"/>
       <c r="Q267" s="5"/>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="4"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -5987,7 +5987,7 @@
       <c r="P268" s="5"/>
       <c r="Q268" s="5"/>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="4"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -6006,7 +6006,7 @@
       <c r="P269" s="5"/>
       <c r="Q269" s="5"/>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="4"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -6025,7 +6025,7 @@
       <c r="P270" s="5"/>
       <c r="Q270" s="5"/>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="4"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -6044,7 +6044,7 @@
       <c r="P271" s="5"/>
       <c r="Q271" s="5"/>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="4"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -6063,7 +6063,7 @@
       <c r="P272" s="5"/>
       <c r="Q272" s="5"/>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="4"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -6082,7 +6082,7 @@
       <c r="P273" s="5"/>
       <c r="Q273" s="5"/>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="4"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -6101,7 +6101,7 @@
       <c r="P274" s="5"/>
       <c r="Q274" s="5"/>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="4"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -6120,7 +6120,7 @@
       <c r="P275" s="5"/>
       <c r="Q275" s="5"/>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="4"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -6139,7 +6139,7 @@
       <c r="P276" s="5"/>
       <c r="Q276" s="5"/>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="4"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -6158,7 +6158,7 @@
       <c r="P277" s="5"/>
       <c r="Q277" s="5"/>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="4"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -6177,7 +6177,7 @@
       <c r="P278" s="5"/>
       <c r="Q278" s="5"/>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="4"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -6196,7 +6196,7 @@
       <c r="P279" s="5"/>
       <c r="Q279" s="5"/>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="4"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -6215,7 +6215,7 @@
       <c r="P280" s="5"/>
       <c r="Q280" s="5"/>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="4"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -6234,7 +6234,7 @@
       <c r="P281" s="5"/>
       <c r="Q281" s="5"/>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="4"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -6253,7 +6253,7 @@
       <c r="P282" s="5"/>
       <c r="Q282" s="5"/>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -6272,7 +6272,7 @@
       <c r="P283" s="5"/>
       <c r="Q283" s="5"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="4"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -6291,7 +6291,7 @@
       <c r="P284" s="5"/>
       <c r="Q284" s="5"/>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="4"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -6310,7 +6310,7 @@
       <c r="P285" s="5"/>
       <c r="Q285" s="5"/>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="4"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -6329,7 +6329,7 @@
       <c r="P286" s="5"/>
       <c r="Q286" s="5"/>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="4"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -6348,7 +6348,7 @@
       <c r="P287" s="5"/>
       <c r="Q287" s="5"/>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="4"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -6367,7 +6367,7 @@
       <c r="P288" s="5"/>
       <c r="Q288" s="5"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" s="4"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -6386,7 +6386,7 @@
       <c r="P289" s="5"/>
       <c r="Q289" s="5"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" s="4"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -6405,7 +6405,7 @@
       <c r="P290" s="5"/>
       <c r="Q290" s="5"/>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" s="4"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -6424,7 +6424,7 @@
       <c r="P291" s="5"/>
       <c r="Q291" s="5"/>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="4"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -6443,7 +6443,7 @@
       <c r="P292" s="5"/>
       <c r="Q292" s="5"/>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" s="4"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -6462,7 +6462,7 @@
       <c r="P293" s="5"/>
       <c r="Q293" s="5"/>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" s="4"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -6481,7 +6481,7 @@
       <c r="P294" s="5"/>
       <c r="Q294" s="5"/>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" s="4"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -6500,7 +6500,7 @@
       <c r="P295" s="5"/>
       <c r="Q295" s="5"/>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" s="4"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -6519,7 +6519,7 @@
       <c r="P296" s="5"/>
       <c r="Q296" s="5"/>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" s="4"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -6538,7 +6538,7 @@
       <c r="P297" s="5"/>
       <c r="Q297" s="5"/>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" s="4"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -6557,7 +6557,7 @@
       <c r="P298" s="5"/>
       <c r="Q298" s="5"/>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" s="4"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -6576,7 +6576,7 @@
       <c r="P299" s="5"/>
       <c r="Q299" s="5"/>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="4"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -6595,7 +6595,7 @@
       <c r="P300" s="5"/>
       <c r="Q300" s="5"/>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" s="4"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -6614,7 +6614,7 @@
       <c r="P301" s="5"/>
       <c r="Q301" s="5"/>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="4"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -6633,7 +6633,7 @@
       <c r="P302" s="5"/>
       <c r="Q302" s="5"/>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" s="4"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -6652,7 +6652,7 @@
       <c r="P303" s="5"/>
       <c r="Q303" s="5"/>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" s="4"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -6671,7 +6671,7 @@
       <c r="P304" s="5"/>
       <c r="Q304" s="5"/>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="4"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -6690,7 +6690,7 @@
       <c r="P305" s="5"/>
       <c r="Q305" s="5"/>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="4"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -6709,7 +6709,7 @@
       <c r="P306" s="5"/>
       <c r="Q306" s="5"/>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="4"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -6728,7 +6728,7 @@
       <c r="P307" s="5"/>
       <c r="Q307" s="5"/>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="4"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -6747,7 +6747,7 @@
       <c r="P308" s="5"/>
       <c r="Q308" s="5"/>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="4"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -6766,7 +6766,7 @@
       <c r="P309" s="5"/>
       <c r="Q309" s="5"/>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="4"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -6785,7 +6785,7 @@
       <c r="P310" s="5"/>
       <c r="Q310" s="5"/>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" s="4"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -6804,7 +6804,7 @@
       <c r="P311" s="5"/>
       <c r="Q311" s="5"/>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" s="4"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -6823,7 +6823,7 @@
       <c r="P312" s="5"/>
       <c r="Q312" s="5"/>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" s="4"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -6842,7 +6842,7 @@
       <c r="P313" s="5"/>
       <c r="Q313" s="5"/>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" s="4"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -6861,7 +6861,7 @@
       <c r="P314" s="5"/>
       <c r="Q314" s="5"/>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" s="4"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -6880,7 +6880,7 @@
       <c r="P315" s="5"/>
       <c r="Q315" s="5"/>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" s="4"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -6899,7 +6899,7 @@
       <c r="P316" s="5"/>
       <c r="Q316" s="5"/>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" s="4"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -6918,7 +6918,7 @@
       <c r="P317" s="5"/>
       <c r="Q317" s="5"/>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" s="4"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -6937,7 +6937,7 @@
       <c r="P318" s="5"/>
       <c r="Q318" s="5"/>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="4"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -6956,7 +6956,7 @@
       <c r="P319" s="5"/>
       <c r="Q319" s="5"/>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="4"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -6975,7 +6975,7 @@
       <c r="P320" s="5"/>
       <c r="Q320" s="5"/>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="4"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -6994,7 +6994,7 @@
       <c r="P321" s="5"/>
       <c r="Q321" s="5"/>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="4"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -7013,7 +7013,7 @@
       <c r="P322" s="5"/>
       <c r="Q322" s="5"/>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" s="4"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -7032,7 +7032,7 @@
       <c r="P323" s="5"/>
       <c r="Q323" s="5"/>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" s="4"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -7051,7 +7051,7 @@
       <c r="P324" s="5"/>
       <c r="Q324" s="5"/>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" s="4"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -7070,7 +7070,7 @@
       <c r="P325" s="5"/>
       <c r="Q325" s="5"/>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="4"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -7089,7 +7089,7 @@
       <c r="P326" s="5"/>
       <c r="Q326" s="5"/>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="4"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -7108,7 +7108,7 @@
       <c r="P327" s="5"/>
       <c r="Q327" s="5"/>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" s="4"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -7127,7 +7127,7 @@
       <c r="P328" s="5"/>
       <c r="Q328" s="5"/>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -7146,7 +7146,7 @@
       <c r="P329" s="5"/>
       <c r="Q329" s="5"/>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" s="4"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -7165,7 +7165,7 @@
       <c r="P330" s="5"/>
       <c r="Q330" s="5"/>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" s="4"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -7184,7 +7184,7 @@
       <c r="P331" s="5"/>
       <c r="Q331" s="5"/>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" s="4"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -7203,7 +7203,7 @@
       <c r="P332" s="5"/>
       <c r="Q332" s="5"/>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" s="4"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -7222,7 +7222,7 @@
       <c r="P333" s="5"/>
       <c r="Q333" s="5"/>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" s="4"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -7241,7 +7241,7 @@
       <c r="P334" s="5"/>
       <c r="Q334" s="5"/>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" s="4"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -7260,7 +7260,7 @@
       <c r="P335" s="5"/>
       <c r="Q335" s="5"/>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" s="4"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -7279,7 +7279,7 @@
       <c r="P336" s="5"/>
       <c r="Q336" s="5"/>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" s="4"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -7298,7 +7298,7 @@
       <c r="P337" s="5"/>
       <c r="Q337" s="5"/>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" s="4"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -7317,7 +7317,7 @@
       <c r="P338" s="5"/>
       <c r="Q338" s="5"/>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="4"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -7336,7 +7336,7 @@
       <c r="P339" s="5"/>
       <c r="Q339" s="5"/>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" s="4"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -7355,7 +7355,7 @@
       <c r="P340" s="5"/>
       <c r="Q340" s="5"/>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" s="4"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -7374,7 +7374,7 @@
       <c r="P341" s="5"/>
       <c r="Q341" s="5"/>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="4"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -7393,7 +7393,7 @@
       <c r="P342" s="5"/>
       <c r="Q342" s="5"/>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" s="4"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -7412,7 +7412,7 @@
       <c r="P343" s="5"/>
       <c r="Q343" s="5"/>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" s="4"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -7431,7 +7431,7 @@
       <c r="P344" s="5"/>
       <c r="Q344" s="5"/>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" s="4"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -7450,7 +7450,7 @@
       <c r="P345" s="5"/>
       <c r="Q345" s="5"/>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="4"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -7469,7 +7469,7 @@
       <c r="P346" s="5"/>
       <c r="Q346" s="5"/>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" s="4"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -7488,7 +7488,7 @@
       <c r="P347" s="5"/>
       <c r="Q347" s="5"/>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" s="4"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -7507,7 +7507,7 @@
       <c r="P348" s="5"/>
       <c r="Q348" s="5"/>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" s="4"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -7526,7 +7526,7 @@
       <c r="P349" s="5"/>
       <c r="Q349" s="5"/>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" s="4"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -7545,7 +7545,7 @@
       <c r="P350" s="5"/>
       <c r="Q350" s="5"/>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" s="4"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -7564,7 +7564,7 @@
       <c r="P351" s="5"/>
       <c r="Q351" s="5"/>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" s="4"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -7583,7 +7583,7 @@
       <c r="P352" s="5"/>
       <c r="Q352" s="5"/>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" s="4"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -7602,7 +7602,7 @@
       <c r="P353" s="5"/>
       <c r="Q353" s="5"/>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" s="4"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -7621,7 +7621,7 @@
       <c r="P354" s="5"/>
       <c r="Q354" s="5"/>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" s="4"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -7640,7 +7640,7 @@
       <c r="P355" s="5"/>
       <c r="Q355" s="5"/>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" s="4"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -7659,7 +7659,7 @@
       <c r="P356" s="5"/>
       <c r="Q356" s="5"/>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" s="4"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -7678,7 +7678,7 @@
       <c r="P357" s="5"/>
       <c r="Q357" s="5"/>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" s="4"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -7697,7 +7697,7 @@
       <c r="P358" s="5"/>
       <c r="Q358" s="5"/>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" s="4"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -7716,7 +7716,7 @@
       <c r="P359" s="5"/>
       <c r="Q359" s="5"/>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" s="4"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -7735,7 +7735,7 @@
       <c r="P360" s="5"/>
       <c r="Q360" s="5"/>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" s="4"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -7754,7 +7754,7 @@
       <c r="P361" s="5"/>
       <c r="Q361" s="5"/>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" s="4"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -7773,7 +7773,7 @@
       <c r="P362" s="5"/>
       <c r="Q362" s="5"/>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" s="4"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -7792,7 +7792,7 @@
       <c r="P363" s="5"/>
       <c r="Q363" s="5"/>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" s="4"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -7811,7 +7811,7 @@
       <c r="P364" s="5"/>
       <c r="Q364" s="5"/>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" s="4"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -7830,7 +7830,7 @@
       <c r="P365" s="5"/>
       <c r="Q365" s="5"/>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" s="4"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -7849,7 +7849,7 @@
       <c r="P366" s="5"/>
       <c r="Q366" s="5"/>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" s="4"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -7868,7 +7868,7 @@
       <c r="P367" s="5"/>
       <c r="Q367" s="5"/>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" s="4"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -7887,7 +7887,7 @@
       <c r="P368" s="5"/>
       <c r="Q368" s="5"/>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" s="4"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -7906,7 +7906,7 @@
       <c r="P369" s="5"/>
       <c r="Q369" s="5"/>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" s="4"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -7925,7 +7925,7 @@
       <c r="P370" s="5"/>
       <c r="Q370" s="5"/>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" s="4"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -7944,7 +7944,7 @@
       <c r="P371" s="5"/>
       <c r="Q371" s="5"/>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" s="4"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -7963,7 +7963,7 @@
       <c r="P372" s="5"/>
       <c r="Q372" s="5"/>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" s="4"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -7982,7 +7982,7 @@
       <c r="P373" s="5"/>
       <c r="Q373" s="5"/>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" s="4"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -8001,7 +8001,7 @@
       <c r="P374" s="5"/>
       <c r="Q374" s="5"/>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" s="4"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -8020,7 +8020,7 @@
       <c r="P375" s="5"/>
       <c r="Q375" s="5"/>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" s="4"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -8039,7 +8039,7 @@
       <c r="P376" s="5"/>
       <c r="Q376" s="5"/>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" s="4"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -8058,7 +8058,7 @@
       <c r="P377" s="5"/>
       <c r="Q377" s="5"/>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" s="4"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -8077,7 +8077,7 @@
       <c r="P378" s="5"/>
       <c r="Q378" s="5"/>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" s="4"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -8096,7 +8096,7 @@
       <c r="P379" s="5"/>
       <c r="Q379" s="5"/>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" s="4"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -8115,7 +8115,7 @@
       <c r="P380" s="5"/>
       <c r="Q380" s="5"/>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" s="4"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -8134,7 +8134,7 @@
       <c r="P381" s="5"/>
       <c r="Q381" s="5"/>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" s="4"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -8153,7 +8153,7 @@
       <c r="P382" s="5"/>
       <c r="Q382" s="5"/>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" s="4"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -8172,7 +8172,7 @@
       <c r="P383" s="5"/>
       <c r="Q383" s="5"/>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" s="4"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -8191,7 +8191,7 @@
       <c r="P384" s="5"/>
       <c r="Q384" s="5"/>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="4"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -8210,7 +8210,7 @@
       <c r="P385" s="5"/>
       <c r="Q385" s="5"/>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="4"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -8229,7 +8229,7 @@
       <c r="P386" s="5"/>
       <c r="Q386" s="5"/>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="4"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -8248,7 +8248,7 @@
       <c r="P387" s="5"/>
       <c r="Q387" s="5"/>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="4"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -8267,7 +8267,7 @@
       <c r="P388" s="5"/>
       <c r="Q388" s="5"/>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="4"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -8286,7 +8286,7 @@
       <c r="P389" s="5"/>
       <c r="Q389" s="5"/>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="4"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -8305,7 +8305,7 @@
       <c r="P390" s="5"/>
       <c r="Q390" s="5"/>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="4"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -8324,7 +8324,7 @@
       <c r="P391" s="5"/>
       <c r="Q391" s="5"/>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="4"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -8343,7 +8343,7 @@
       <c r="P392" s="5"/>
       <c r="Q392" s="5"/>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="4"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -8362,7 +8362,7 @@
       <c r="P393" s="5"/>
       <c r="Q393" s="5"/>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="4"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -8381,7 +8381,7 @@
       <c r="P394" s="5"/>
       <c r="Q394" s="5"/>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="4"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -8400,7 +8400,7 @@
       <c r="P395" s="5"/>
       <c r="Q395" s="5"/>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="4"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -8419,7 +8419,7 @@
       <c r="P396" s="5"/>
       <c r="Q396" s="5"/>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="4"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -8438,7 +8438,7 @@
       <c r="P397" s="5"/>
       <c r="Q397" s="5"/>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" s="4"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -8457,7 +8457,7 @@
       <c r="P398" s="5"/>
       <c r="Q398" s="5"/>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" s="4"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -8476,7 +8476,7 @@
       <c r="P399" s="5"/>
       <c r="Q399" s="5"/>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" s="4"/>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
